--- a/EXCEL/IRA ERA AU - APS - 2023.xlsx
+++ b/EXCEL/IRA ERA AU - APS - 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://licenciasminsal-my.sharepoint.com/personal/santiago_farias_redsalud_gob_cl/Documents/Escritorio/GIE/IRA-ERA/EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{96062A1C-DC91-4425-A141-9934E1FA599C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E928269E-2F60-46FC-8C72-03400BDCD66D}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="8_{96062A1C-DC91-4425-A141-9934E1FA599C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30165248-D4D7-4FAC-94AF-6E591E80ACEC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{D9398242-F652-4802-8DCB-A2BE7AF8838D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="7" xr2:uid="{D9398242-F652-4802-8DCB-A2BE7AF8838D}"/>
   </bookViews>
   <sheets>
     <sheet name="Todas las edades" sheetId="1" r:id="rId1"/>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13922,10 +13922,15 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -15489,7 +15494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4F4B4E-4039-4727-9D11-4F464AF96CE0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -15645,7 +15650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D50EE51-AAC4-495F-8C0A-69DFE9B60D98}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" activeCellId="1" sqref="C1:C4 A1:A4"/>
     </sheetView>
   </sheetViews>
